--- a/modelResults/confusion_matrix_table.xlsx
+++ b/modelResults/confusion_matrix_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,10 +670,10 @@
     <t xml:space="preserve">Naïve Bayes </t>
   </si>
   <si>
-    <t>Neural Networ</t>
+    <t>Ensemble</t>
   </si>
   <si>
-    <t>Ensemble</t>
+    <t>Neural Network</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1176,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,15 +1208,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,8 +1616,8 @@
       <c r="H6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="61" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="57" t="s">
@@ -1654,8 +1654,8 @@
       <c r="W6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="61" t="s">
+      <c r="X6" s="60"/>
+      <c r="Y6" s="59" t="s">
         <v>0</v>
       </c>
       <c r="Z6" s="57" t="s">
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="58"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="58"/>
       <c r="K7" s="2">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="58"/>
-      <c r="X7" s="60"/>
+      <c r="X7" s="61"/>
       <c r="Y7" s="58"/>
       <c r="Z7" s="2">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <f>F8+G8</f>
         <v>11757</v>
       </c>
-      <c r="I8" s="60"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="2">
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
         <f>U8+V8</f>
         <v>5841</v>
       </c>
-      <c r="X8" s="60"/>
+      <c r="X8" s="61"/>
       <c r="Y8" s="2">
         <v>0</v>
       </c>
@@ -2052,8 +2052,8 @@
       <c r="H24" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="61" t="s">
+      <c r="I24" s="60"/>
+      <c r="J24" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="57" t="s">
@@ -2090,8 +2090,8 @@
       <c r="W24" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="61" t="s">
+      <c r="X24" s="60"/>
+      <c r="Y24" s="59" t="s">
         <v>0</v>
       </c>
       <c r="Z24" s="57" t="s">
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="58"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="58"/>
       <c r="K25" s="2">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="58"/>
-      <c r="X25" s="60"/>
+      <c r="X25" s="61"/>
       <c r="Y25" s="58"/>
       <c r="Z25" s="2">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <f>F26+G26</f>
         <v>11757</v>
       </c>
-      <c r="I26" s="60"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="2">
         <v>0</v>
       </c>
@@ -2255,7 +2255,7 @@
         <f>U26+V26</f>
         <v>5841</v>
       </c>
-      <c r="X26" s="60"/>
+      <c r="X26" s="61"/>
       <c r="Y26" s="2">
         <v>0</v>
       </c>
@@ -2380,20 +2380,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E4:R5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="T4:AG5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X9"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="E22:R23"/>
     <mergeCell ref="T22:AG23"/>
     <mergeCell ref="E24:E25"/>
@@ -2408,6 +2394,20 @@
     <mergeCell ref="X24:X27"/>
     <mergeCell ref="Y24:Y25"/>
     <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="T4:AG5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="E4:R5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B35" s="41" t="str">
         <f>VLOOKUP(A35,Sheet4!$A$1:$B$13,2,FALSE)</f>
-        <v>Neural Networ</v>
+        <v>Neural Network</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>63</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B36" s="41" t="str">
         <f>VLOOKUP(A36,Sheet4!$A$1:$B$13,2,FALSE)</f>
-        <v>Neural Networ</v>
+        <v>Neural Network</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>61</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B37" s="41" t="str">
         <f>VLOOKUP(A37,Sheet4!$A$1:$B$13,2,FALSE)</f>
-        <v>Neural Networ</v>
+        <v>Neural Network</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>62</v>
@@ -3884,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3986,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4071,8 +4071,8 @@
       <c r="H4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="57" t="s">
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="58"/>
       <c r="K5" s="2">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <f>F6+G6</f>
         <v>11757</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="2">
         <v>0</v>
       </c>
@@ -4240,18 +4240,18 @@
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64"/>
       <c r="Q8" s="31" t="s">
         <v>47</v>
       </c>
@@ -4307,8 +4307,8 @@
       <c r="H11" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="61" t="s">
+      <c r="I11" s="60"/>
+      <c r="J11" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="57" t="s">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="58"/>
       <c r="K12" s="2">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <f>F13+G13</f>
         <v>5841</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="2">
         <v>0</v>
       </c>
@@ -4478,18 +4478,18 @@
       <c r="S14" s="30"/>
     </row>
     <row r="15" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
       <c r="Q15" s="31" t="s">
         <v>47</v>
       </c>
@@ -4498,39 +4498,39 @@
       </c>
     </row>
     <row r="16" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74"/>
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4544,8 +4544,8 @@
       <c r="H18" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="61" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="57" t="s">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="58"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="58"/>
       <c r="K19" s="2">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <f>F20+G20</f>
         <v>5766</v>
       </c>
-      <c r="I20" s="60"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="2">
         <v>0</v>
       </c>
@@ -4715,18 +4715,18 @@
       <c r="S21" s="30"/>
     </row>
     <row r="22" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="35" t="s">
         <v>47</v>
       </c>
@@ -4782,8 +4782,8 @@
       <c r="H28" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="61" t="s">
+      <c r="I28" s="60"/>
+      <c r="J28" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K28" s="57" t="s">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="58"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="58"/>
       <c r="K29" s="2">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <f>F30+G30</f>
         <v>11757</v>
       </c>
-      <c r="I30" s="60"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="2">
         <v>0</v>
       </c>
@@ -4952,18 +4952,18 @@
       <c r="S31" s="30"/>
     </row>
     <row r="32" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
       <c r="Q32" s="31" t="s">
         <v>47</v>
       </c>
@@ -5019,8 +5019,8 @@
       <c r="H35" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="59"/>
-      <c r="J35" s="61" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K35" s="57" t="s">
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="58"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="58"/>
       <c r="K36" s="2">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <f>F37+G37</f>
         <v>5841</v>
       </c>
-      <c r="I37" s="60"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="2">
         <v>0</v>
       </c>
@@ -5190,18 +5190,18 @@
       <c r="S38" s="30"/>
     </row>
     <row r="39" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
       <c r="Q39" s="35" t="s">
         <v>47</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="S39" s="30"/>
     </row>
     <row r="40" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="65" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="46"/>
@@ -5257,8 +5257,8 @@
       <c r="H42" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K42" s="57" t="s">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="58"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="58"/>
       <c r="K43" s="2">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <f>F44+G44</f>
         <v>5766</v>
       </c>
-      <c r="I44" s="60"/>
+      <c r="I44" s="61"/>
       <c r="J44" s="2">
         <v>0</v>
       </c>
@@ -5428,18 +5428,18 @@
       <c r="S45" s="30"/>
     </row>
     <row r="46" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="63"/>
       <c r="Q46" s="35" t="s">
         <v>47</v>
       </c>
@@ -5496,8 +5496,8 @@
       <c r="H51" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="61" t="s">
+      <c r="I51" s="60"/>
+      <c r="J51" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K51" s="57" t="s">
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="58"/>
-      <c r="I52" s="60"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="58"/>
       <c r="K52" s="2">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <f>F53+G53</f>
         <v>11757</v>
       </c>
-      <c r="I53" s="60"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="2">
         <v>0</v>
       </c>
@@ -5666,18 +5666,18 @@
       <c r="S54" s="30"/>
     </row>
     <row r="55" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="72"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="74"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="64"/>
       <c r="Q55" s="31" t="s">
         <v>47</v>
       </c>
@@ -5733,8 +5733,8 @@
       <c r="H58" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="59"/>
-      <c r="J58" s="61" t="s">
+      <c r="I58" s="60"/>
+      <c r="J58" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K58" s="57" t="s">
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="58"/>
-      <c r="I59" s="60"/>
+      <c r="I59" s="61"/>
       <c r="J59" s="58"/>
       <c r="K59" s="2">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <f>F60+G60</f>
         <v>5841</v>
       </c>
-      <c r="I60" s="60"/>
+      <c r="I60" s="61"/>
       <c r="J60" s="2">
         <v>0</v>
       </c>
@@ -5904,18 +5904,18 @@
       <c r="S61" s="30"/>
     </row>
     <row r="62" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="72"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="74"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="64"/>
       <c r="Q62" s="31" t="s">
         <v>47</v>
       </c>
@@ -5925,39 +5925,39 @@
       <c r="S62" s="30"/>
     </row>
     <row r="63" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="69"/>
       <c r="S63" s="29"/>
     </row>
     <row r="64" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="67"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="71"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="74"/>
       <c r="S64" s="29"/>
     </row>
     <row r="65" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5971,8 +5971,8 @@
       <c r="H65" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I65" s="59"/>
-      <c r="J65" s="61" t="s">
+      <c r="I65" s="60"/>
+      <c r="J65" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="57" t="s">
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="58"/>
-      <c r="I66" s="60"/>
+      <c r="I66" s="61"/>
       <c r="J66" s="58"/>
       <c r="K66" s="2">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <f>F67+G67</f>
         <v>5766</v>
       </c>
-      <c r="I67" s="60"/>
+      <c r="I67" s="61"/>
       <c r="J67" s="2">
         <v>0</v>
       </c>
@@ -6142,18 +6142,18 @@
       <c r="S68" s="30"/>
     </row>
     <row r="69" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="72"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
       <c r="Q69" s="35" t="s">
         <v>47</v>
       </c>
@@ -6210,8 +6210,8 @@
       <c r="H75" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I75" s="59"/>
-      <c r="J75" s="61" t="s">
+      <c r="I75" s="60"/>
+      <c r="J75" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K75" s="57" t="s">
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="58"/>
-      <c r="I76" s="60"/>
+      <c r="I76" s="61"/>
       <c r="J76" s="58"/>
       <c r="K76" s="2">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <f>F77+G77</f>
         <v>11757</v>
       </c>
-      <c r="I77" s="60"/>
+      <c r="I77" s="61"/>
       <c r="J77" s="2">
         <v>0</v>
       </c>
@@ -6380,18 +6380,18 @@
       <c r="S78" s="30"/>
     </row>
     <row r="79" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="72"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="74"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="64"/>
       <c r="Q79" s="31" t="s">
         <v>47</v>
       </c>
@@ -6447,8 +6447,8 @@
       <c r="H82" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I82" s="59"/>
-      <c r="J82" s="61" t="s">
+      <c r="I82" s="60"/>
+      <c r="J82" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K82" s="57" t="s">
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="58"/>
-      <c r="I83" s="60"/>
+      <c r="I83" s="61"/>
       <c r="J83" s="58"/>
       <c r="K83" s="2">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <f>F84+G84</f>
         <v>5841</v>
       </c>
-      <c r="I84" s="60"/>
+      <c r="I84" s="61"/>
       <c r="J84" s="2">
         <v>0</v>
       </c>
@@ -6618,18 +6618,18 @@
       <c r="S85" s="30"/>
     </row>
     <row r="86" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="72"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="74"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="64"/>
       <c r="Q86" s="31" t="s">
         <v>47</v>
       </c>
@@ -6685,8 +6685,8 @@
       <c r="H89" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I89" s="59"/>
-      <c r="J89" s="61" t="s">
+      <c r="I89" s="60"/>
+      <c r="J89" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K89" s="57" t="s">
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="58"/>
-      <c r="I90" s="60"/>
+      <c r="I90" s="61"/>
       <c r="J90" s="58"/>
       <c r="K90" s="2">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <f>F91+G91</f>
         <v>5766</v>
       </c>
-      <c r="I91" s="60"/>
+      <c r="I91" s="61"/>
       <c r="J91" s="2">
         <v>0</v>
       </c>
@@ -6856,18 +6856,18 @@
       <c r="S92" s="30"/>
     </row>
     <row r="93" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="72"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="73"/>
-      <c r="N93" s="73"/>
-      <c r="O93" s="73"/>
-      <c r="P93" s="73"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
       <c r="Q93" s="35" t="s">
         <v>47</v>
       </c>
@@ -6924,8 +6924,8 @@
       <c r="H102" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I102" s="59"/>
-      <c r="J102" s="61" t="s">
+      <c r="I102" s="60"/>
+      <c r="J102" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K102" s="57" t="s">
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="58"/>
-      <c r="I103" s="60"/>
+      <c r="I103" s="61"/>
       <c r="J103" s="58"/>
       <c r="K103" s="2">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <f>F104+G104</f>
         <v>11757</v>
       </c>
-      <c r="I104" s="60"/>
+      <c r="I104" s="61"/>
       <c r="J104" s="2">
         <v>0</v>
       </c>
@@ -7094,18 +7094,18 @@
       <c r="S105" s="30"/>
     </row>
     <row r="106" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="72"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="74"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="64"/>
       <c r="Q106" s="31" t="s">
         <v>47</v>
       </c>
@@ -7161,8 +7161,8 @@
       <c r="H109" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I109" s="59"/>
-      <c r="J109" s="61" t="s">
+      <c r="I109" s="60"/>
+      <c r="J109" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K109" s="57" t="s">
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="58"/>
-      <c r="I110" s="60"/>
+      <c r="I110" s="61"/>
       <c r="J110" s="58"/>
       <c r="K110" s="2">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <f>F111+G111</f>
         <v>5841</v>
       </c>
-      <c r="I111" s="60"/>
+      <c r="I111" s="61"/>
       <c r="J111" s="2">
         <v>0</v>
       </c>
@@ -7332,18 +7332,18 @@
       <c r="S112" s="30"/>
     </row>
     <row r="113" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="72"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
-      <c r="K113" s="73"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="73"/>
-      <c r="N113" s="73"/>
-      <c r="O113" s="73"/>
-      <c r="P113" s="74"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
+      <c r="O113" s="63"/>
+      <c r="P113" s="64"/>
       <c r="Q113" s="31" t="s">
         <v>47</v>
       </c>
@@ -7399,8 +7399,8 @@
       <c r="H116" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I116" s="59"/>
-      <c r="J116" s="61" t="s">
+      <c r="I116" s="60"/>
+      <c r="J116" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K116" s="57" t="s">
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="58"/>
-      <c r="I117" s="60"/>
+      <c r="I117" s="61"/>
       <c r="J117" s="58"/>
       <c r="K117" s="2">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <f>F118+G118</f>
         <v>5766</v>
       </c>
-      <c r="I118" s="60"/>
+      <c r="I118" s="61"/>
       <c r="J118" s="2">
         <v>0</v>
       </c>
@@ -7570,18 +7570,18 @@
       <c r="S119" s="30"/>
     </row>
     <row r="120" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="72"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="73"/>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
-      <c r="N120" s="73"/>
-      <c r="O120" s="73"/>
-      <c r="P120" s="73"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="63"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="63"/>
+      <c r="L120" s="63"/>
+      <c r="M120" s="63"/>
+      <c r="N120" s="63"/>
+      <c r="O120" s="63"/>
+      <c r="P120" s="63"/>
       <c r="Q120" s="35" t="s">
         <v>47</v>
       </c>
@@ -7638,8 +7638,8 @@
       <c r="H127" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I127" s="59"/>
-      <c r="J127" s="61" t="s">
+      <c r="I127" s="60"/>
+      <c r="J127" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K127" s="57" t="s">
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="58"/>
-      <c r="I128" s="60"/>
+      <c r="I128" s="61"/>
       <c r="J128" s="58"/>
       <c r="K128" s="2">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <f>F129+G129</f>
         <v>11757</v>
       </c>
-      <c r="I129" s="60"/>
+      <c r="I129" s="61"/>
       <c r="J129" s="2">
         <v>0</v>
       </c>
@@ -7808,18 +7808,18 @@
       <c r="S130" s="30"/>
     </row>
     <row r="131" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E131" s="72"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="73"/>
-      <c r="K131" s="73"/>
-      <c r="L131" s="73"/>
-      <c r="M131" s="73"/>
-      <c r="N131" s="73"/>
-      <c r="O131" s="73"/>
-      <c r="P131" s="74"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="63"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="63"/>
+      <c r="K131" s="63"/>
+      <c r="L131" s="63"/>
+      <c r="M131" s="63"/>
+      <c r="N131" s="63"/>
+      <c r="O131" s="63"/>
+      <c r="P131" s="64"/>
       <c r="Q131" s="31" t="s">
         <v>47</v>
       </c>
@@ -7875,8 +7875,8 @@
       <c r="H134" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I134" s="59"/>
-      <c r="J134" s="61" t="s">
+      <c r="I134" s="60"/>
+      <c r="J134" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K134" s="57" t="s">
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="58"/>
-      <c r="I135" s="60"/>
+      <c r="I135" s="61"/>
       <c r="J135" s="58"/>
       <c r="K135" s="2">
         <v>0</v>
@@ -7960,7 +7960,7 @@
         <f>F136+G136</f>
         <v>5841</v>
       </c>
-      <c r="I136" s="60"/>
+      <c r="I136" s="61"/>
       <c r="J136" s="2">
         <v>0</v>
       </c>
@@ -8046,18 +8046,18 @@
       <c r="S137" s="30"/>
     </row>
     <row r="138" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E138" s="72"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="73"/>
-      <c r="I138" s="73"/>
-      <c r="J138" s="73"/>
-      <c r="K138" s="73"/>
-      <c r="L138" s="73"/>
-      <c r="M138" s="73"/>
-      <c r="N138" s="73"/>
-      <c r="O138" s="73"/>
-      <c r="P138" s="74"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="63"/>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="63"/>
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
+      <c r="O138" s="63"/>
+      <c r="P138" s="64"/>
       <c r="Q138" s="31" t="s">
         <v>47</v>
       </c>
@@ -8067,39 +8067,39 @@
       <c r="S138" s="30"/>
     </row>
     <row r="139" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E139" s="62" t="s">
+      <c r="E139" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="63"/>
-      <c r="J139" s="63"/>
-      <c r="K139" s="63"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="63"/>
-      <c r="N139" s="63"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="64"/>
-      <c r="Q139" s="65"/>
-      <c r="R139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="66"/>
+      <c r="M139" s="66"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="67"/>
+      <c r="P139" s="67"/>
+      <c r="Q139" s="68"/>
+      <c r="R139" s="69"/>
       <c r="S139" s="29"/>
     </row>
     <row r="140" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E140" s="67"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="68"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
-      <c r="J140" s="68"/>
-      <c r="K140" s="68"/>
-      <c r="L140" s="68"/>
-      <c r="M140" s="68"/>
-      <c r="N140" s="68"/>
-      <c r="O140" s="69"/>
-      <c r="P140" s="69"/>
-      <c r="Q140" s="70"/>
-      <c r="R140" s="71"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+      <c r="M140" s="71"/>
+      <c r="N140" s="71"/>
+      <c r="O140" s="72"/>
+      <c r="P140" s="72"/>
+      <c r="Q140" s="73"/>
+      <c r="R140" s="74"/>
       <c r="S140" s="29"/>
     </row>
     <row r="141" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8113,8 +8113,8 @@
       <c r="H141" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I141" s="59"/>
-      <c r="J141" s="61" t="s">
+      <c r="I141" s="60"/>
+      <c r="J141" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K141" s="57" t="s">
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="58"/>
-      <c r="I142" s="60"/>
+      <c r="I142" s="61"/>
       <c r="J142" s="58"/>
       <c r="K142" s="2">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <f>F143+G143</f>
         <v>5766</v>
       </c>
-      <c r="I143" s="60"/>
+      <c r="I143" s="61"/>
       <c r="J143" s="2">
         <v>0</v>
       </c>
@@ -8284,18 +8284,18 @@
       <c r="S144" s="30"/>
     </row>
     <row r="145" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E145" s="72"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="73"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="73"/>
-      <c r="K145" s="73"/>
-      <c r="L145" s="73"/>
-      <c r="M145" s="73"/>
-      <c r="N145" s="73"/>
-      <c r="O145" s="73"/>
-      <c r="P145" s="73"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
+      <c r="K145" s="63"/>
+      <c r="L145" s="63"/>
+      <c r="M145" s="63"/>
+      <c r="N145" s="63"/>
+      <c r="O145" s="63"/>
+      <c r="P145" s="63"/>
       <c r="Q145" s="35" t="s">
         <v>47</v>
       </c>
@@ -8352,8 +8352,8 @@
       <c r="H151" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I151" s="59"/>
-      <c r="J151" s="61" t="s">
+      <c r="I151" s="60"/>
+      <c r="J151" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K151" s="57" t="s">
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="H152" s="58"/>
-      <c r="I152" s="60"/>
+      <c r="I152" s="61"/>
       <c r="J152" s="58"/>
       <c r="K152" s="2">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <f>F153+G153</f>
         <v>11757</v>
       </c>
-      <c r="I153" s="60"/>
+      <c r="I153" s="61"/>
       <c r="J153" s="2">
         <v>0</v>
       </c>
@@ -8522,18 +8522,18 @@
       <c r="S154" s="30"/>
     </row>
     <row r="155" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E155" s="72"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="73"/>
-      <c r="I155" s="73"/>
-      <c r="J155" s="73"/>
-      <c r="K155" s="73"/>
-      <c r="L155" s="73"/>
-      <c r="M155" s="73"/>
-      <c r="N155" s="73"/>
-      <c r="O155" s="73"/>
-      <c r="P155" s="74"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+      <c r="M155" s="63"/>
+      <c r="N155" s="63"/>
+      <c r="O155" s="63"/>
+      <c r="P155" s="64"/>
       <c r="Q155" s="31" t="s">
         <v>47</v>
       </c>
@@ -8589,8 +8589,8 @@
       <c r="H158" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I158" s="59"/>
-      <c r="J158" s="61" t="s">
+      <c r="I158" s="60"/>
+      <c r="J158" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K158" s="57" t="s">
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="58"/>
-      <c r="I159" s="60"/>
+      <c r="I159" s="61"/>
       <c r="J159" s="58"/>
       <c r="K159" s="2">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <f>F160+G160</f>
         <v>5841</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="61"/>
       <c r="J160" s="2">
         <v>0</v>
       </c>
@@ -8760,18 +8760,18 @@
       <c r="S161" s="30"/>
     </row>
     <row r="162" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E162" s="72"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="73"/>
-      <c r="H162" s="73"/>
-      <c r="I162" s="73"/>
-      <c r="J162" s="73"/>
-      <c r="K162" s="73"/>
-      <c r="L162" s="73"/>
-      <c r="M162" s="73"/>
-      <c r="N162" s="73"/>
-      <c r="O162" s="73"/>
-      <c r="P162" s="74"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="63"/>
+      <c r="J162" s="63"/>
+      <c r="K162" s="63"/>
+      <c r="L162" s="63"/>
+      <c r="M162" s="63"/>
+      <c r="N162" s="63"/>
+      <c r="O162" s="63"/>
+      <c r="P162" s="64"/>
       <c r="Q162" s="31" t="s">
         <v>47</v>
       </c>
@@ -8781,39 +8781,39 @@
       <c r="S162" s="30"/>
     </row>
     <row r="163" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E163" s="62" t="s">
+      <c r="E163" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
-      <c r="J163" s="63"/>
-      <c r="K163" s="63"/>
-      <c r="L163" s="63"/>
-      <c r="M163" s="63"/>
-      <c r="N163" s="63"/>
-      <c r="O163" s="64"/>
-      <c r="P163" s="64"/>
-      <c r="Q163" s="65"/>
-      <c r="R163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="66"/>
+      <c r="L163" s="66"/>
+      <c r="M163" s="66"/>
+      <c r="N163" s="66"/>
+      <c r="O163" s="67"/>
+      <c r="P163" s="67"/>
+      <c r="Q163" s="68"/>
+      <c r="R163" s="69"/>
       <c r="S163" s="29"/>
     </row>
     <row r="164" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E164" s="67"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="68"/>
-      <c r="I164" s="68"/>
-      <c r="J164" s="68"/>
-      <c r="K164" s="68"/>
-      <c r="L164" s="68"/>
-      <c r="M164" s="68"/>
-      <c r="N164" s="68"/>
-      <c r="O164" s="69"/>
-      <c r="P164" s="69"/>
-      <c r="Q164" s="70"/>
-      <c r="R164" s="71"/>
+      <c r="E164" s="70"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="71"/>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
+      <c r="K164" s="71"/>
+      <c r="L164" s="71"/>
+      <c r="M164" s="71"/>
+      <c r="N164" s="71"/>
+      <c r="O164" s="72"/>
+      <c r="P164" s="72"/>
+      <c r="Q164" s="73"/>
+      <c r="R164" s="74"/>
       <c r="S164" s="29"/>
     </row>
     <row r="165" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,8 +8827,8 @@
       <c r="H165" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I165" s="59"/>
-      <c r="J165" s="61" t="s">
+      <c r="I165" s="60"/>
+      <c r="J165" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K165" s="57" t="s">
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="58"/>
-      <c r="I166" s="60"/>
+      <c r="I166" s="61"/>
       <c r="J166" s="58"/>
       <c r="K166" s="2">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <f>F167+G167</f>
         <v>5832</v>
       </c>
-      <c r="I167" s="60"/>
+      <c r="I167" s="61"/>
       <c r="J167" s="2">
         <v>0</v>
       </c>
@@ -8998,18 +8998,18 @@
       <c r="S168" s="30"/>
     </row>
     <row r="169" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E169" s="72"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="73"/>
-      <c r="I169" s="73"/>
-      <c r="J169" s="73"/>
-      <c r="K169" s="73"/>
-      <c r="L169" s="73"/>
-      <c r="M169" s="73"/>
-      <c r="N169" s="73"/>
-      <c r="O169" s="73"/>
-      <c r="P169" s="73"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="63"/>
+      <c r="G169" s="63"/>
+      <c r="H169" s="63"/>
+      <c r="I169" s="63"/>
+      <c r="J169" s="63"/>
+      <c r="K169" s="63"/>
+      <c r="L169" s="63"/>
+      <c r="M169" s="63"/>
+      <c r="N169" s="63"/>
+      <c r="O169" s="63"/>
+      <c r="P169" s="63"/>
       <c r="Q169" s="35" t="s">
         <v>47</v>
       </c>
@@ -9066,8 +9066,8 @@
       <c r="H176" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I176" s="59"/>
-      <c r="J176" s="61" t="s">
+      <c r="I176" s="60"/>
+      <c r="J176" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K176" s="57" t="s">
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="58"/>
-      <c r="I177" s="60"/>
+      <c r="I177" s="61"/>
       <c r="J177" s="58"/>
       <c r="K177" s="2">
         <v>0</v>
@@ -9150,7 +9150,7 @@
         <f>F178+G178</f>
         <v>11757</v>
       </c>
-      <c r="I178" s="60"/>
+      <c r="I178" s="61"/>
       <c r="J178" s="2">
         <v>0</v>
       </c>
@@ -9236,18 +9236,18 @@
       <c r="S179" s="30"/>
     </row>
     <row r="180" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E180" s="72"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="73"/>
-      <c r="H180" s="73"/>
-      <c r="I180" s="73"/>
-      <c r="J180" s="73"/>
-      <c r="K180" s="73"/>
-      <c r="L180" s="73"/>
-      <c r="M180" s="73"/>
-      <c r="N180" s="73"/>
-      <c r="O180" s="73"/>
-      <c r="P180" s="74"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
+      <c r="L180" s="63"/>
+      <c r="M180" s="63"/>
+      <c r="N180" s="63"/>
+      <c r="O180" s="63"/>
+      <c r="P180" s="64"/>
       <c r="Q180" s="31" t="s">
         <v>47</v>
       </c>
@@ -9303,8 +9303,8 @@
       <c r="H183" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I183" s="59"/>
-      <c r="J183" s="61" t="s">
+      <c r="I183" s="60"/>
+      <c r="J183" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K183" s="57" t="s">
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="58"/>
-      <c r="I184" s="60"/>
+      <c r="I184" s="61"/>
       <c r="J184" s="58"/>
       <c r="K184" s="2">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <f>F185+G185</f>
         <v>5841</v>
       </c>
-      <c r="I185" s="60"/>
+      <c r="I185" s="61"/>
       <c r="J185" s="2">
         <v>0</v>
       </c>
@@ -9474,18 +9474,18 @@
       <c r="S186" s="30"/>
     </row>
     <row r="187" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E187" s="72"/>
-      <c r="F187" s="73"/>
-      <c r="G187" s="73"/>
-      <c r="H187" s="73"/>
-      <c r="I187" s="73"/>
-      <c r="J187" s="73"/>
-      <c r="K187" s="73"/>
-      <c r="L187" s="73"/>
-      <c r="M187" s="73"/>
-      <c r="N187" s="73"/>
-      <c r="O187" s="73"/>
-      <c r="P187" s="74"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="63"/>
+      <c r="H187" s="63"/>
+      <c r="I187" s="63"/>
+      <c r="J187" s="63"/>
+      <c r="K187" s="63"/>
+      <c r="L187" s="63"/>
+      <c r="M187" s="63"/>
+      <c r="N187" s="63"/>
+      <c r="O187" s="63"/>
+      <c r="P187" s="64"/>
       <c r="Q187" s="31" t="s">
         <v>47</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="S187" s="30"/>
     </row>
     <row r="188" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E188" s="62" t="s">
+      <c r="E188" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F188" s="46"/>
@@ -9541,8 +9541,8 @@
       <c r="H190" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I190" s="59"/>
-      <c r="J190" s="61" t="s">
+      <c r="I190" s="60"/>
+      <c r="J190" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K190" s="57" t="s">
@@ -9581,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="H191" s="58"/>
-      <c r="I191" s="60"/>
+      <c r="I191" s="61"/>
       <c r="J191" s="58"/>
       <c r="K191" s="2">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <f>F192+G192</f>
         <v>5766</v>
       </c>
-      <c r="I192" s="60"/>
+      <c r="I192" s="61"/>
       <c r="J192" s="2">
         <v>0</v>
       </c>
@@ -9712,18 +9712,18 @@
       <c r="S193" s="30"/>
     </row>
     <row r="194" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E194" s="72"/>
-      <c r="F194" s="73"/>
-      <c r="G194" s="73"/>
-      <c r="H194" s="73"/>
-      <c r="I194" s="73"/>
-      <c r="J194" s="73"/>
-      <c r="K194" s="73"/>
-      <c r="L194" s="73"/>
-      <c r="M194" s="73"/>
-      <c r="N194" s="73"/>
-      <c r="O194" s="73"/>
-      <c r="P194" s="73"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="63"/>
+      <c r="H194" s="63"/>
+      <c r="I194" s="63"/>
+      <c r="J194" s="63"/>
+      <c r="K194" s="63"/>
+      <c r="L194" s="63"/>
+      <c r="M194" s="63"/>
+      <c r="N194" s="63"/>
+      <c r="O194" s="63"/>
+      <c r="P194" s="63"/>
       <c r="Q194" s="35" t="s">
         <v>47</v>
       </c>
@@ -9780,8 +9780,8 @@
       <c r="H201" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I201" s="59"/>
-      <c r="J201" s="61" t="s">
+      <c r="I201" s="60"/>
+      <c r="J201" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K201" s="57" t="s">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="58"/>
-      <c r="I202" s="60"/>
+      <c r="I202" s="61"/>
       <c r="J202" s="58"/>
       <c r="K202" s="2">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <f>F203+G203</f>
         <v>11757</v>
       </c>
-      <c r="I203" s="60"/>
+      <c r="I203" s="61"/>
       <c r="J203" s="2">
         <v>0</v>
       </c>
@@ -9950,18 +9950,18 @@
       <c r="S204" s="30"/>
     </row>
     <row r="205" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E205" s="72"/>
-      <c r="F205" s="73"/>
-      <c r="G205" s="73"/>
-      <c r="H205" s="73"/>
-      <c r="I205" s="73"/>
-      <c r="J205" s="73"/>
-      <c r="K205" s="73"/>
-      <c r="L205" s="73"/>
-      <c r="M205" s="73"/>
-      <c r="N205" s="73"/>
-      <c r="O205" s="73"/>
-      <c r="P205" s="74"/>
+      <c r="E205" s="62"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="63"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="63"/>
+      <c r="K205" s="63"/>
+      <c r="L205" s="63"/>
+      <c r="M205" s="63"/>
+      <c r="N205" s="63"/>
+      <c r="O205" s="63"/>
+      <c r="P205" s="64"/>
       <c r="Q205" s="31" t="s">
         <v>47</v>
       </c>
@@ -10017,8 +10017,8 @@
       <c r="H208" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I208" s="59"/>
-      <c r="J208" s="61" t="s">
+      <c r="I208" s="60"/>
+      <c r="J208" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K208" s="57" t="s">
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="H209" s="58"/>
-      <c r="I209" s="60"/>
+      <c r="I209" s="61"/>
       <c r="J209" s="58"/>
       <c r="K209" s="2">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <f>F210+G210</f>
         <v>5841</v>
       </c>
-      <c r="I210" s="60"/>
+      <c r="I210" s="61"/>
       <c r="J210" s="2">
         <v>0</v>
       </c>
@@ -10188,18 +10188,18 @@
       <c r="S211" s="30"/>
     </row>
     <row r="212" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E212" s="72"/>
-      <c r="F212" s="73"/>
-      <c r="G212" s="73"/>
-      <c r="H212" s="73"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="73"/>
-      <c r="K212" s="73"/>
-      <c r="L212" s="73"/>
-      <c r="M212" s="73"/>
-      <c r="N212" s="73"/>
-      <c r="O212" s="73"/>
-      <c r="P212" s="74"/>
+      <c r="E212" s="62"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="63"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+      <c r="M212" s="63"/>
+      <c r="N212" s="63"/>
+      <c r="O212" s="63"/>
+      <c r="P212" s="64"/>
       <c r="Q212" s="31" t="s">
         <v>47</v>
       </c>
@@ -10209,39 +10209,39 @@
       <c r="S212" s="30"/>
     </row>
     <row r="213" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E213" s="62" t="s">
+      <c r="E213" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
-      <c r="J213" s="63"/>
-      <c r="K213" s="63"/>
-      <c r="L213" s="63"/>
-      <c r="M213" s="63"/>
-      <c r="N213" s="63"/>
-      <c r="O213" s="64"/>
-      <c r="P213" s="64"/>
-      <c r="Q213" s="65"/>
-      <c r="R213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="66"/>
+      <c r="L213" s="66"/>
+      <c r="M213" s="66"/>
+      <c r="N213" s="66"/>
+      <c r="O213" s="67"/>
+      <c r="P213" s="67"/>
+      <c r="Q213" s="68"/>
+      <c r="R213" s="69"/>
       <c r="S213" s="29"/>
     </row>
     <row r="214" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E214" s="67"/>
-      <c r="F214" s="68"/>
-      <c r="G214" s="68"/>
-      <c r="H214" s="68"/>
-      <c r="I214" s="68"/>
-      <c r="J214" s="68"/>
-      <c r="K214" s="68"/>
-      <c r="L214" s="68"/>
-      <c r="M214" s="68"/>
-      <c r="N214" s="68"/>
-      <c r="O214" s="69"/>
-      <c r="P214" s="69"/>
-      <c r="Q214" s="70"/>
-      <c r="R214" s="71"/>
+      <c r="E214" s="70"/>
+      <c r="F214" s="71"/>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="71"/>
+      <c r="J214" s="71"/>
+      <c r="K214" s="71"/>
+      <c r="L214" s="71"/>
+      <c r="M214" s="71"/>
+      <c r="N214" s="71"/>
+      <c r="O214" s="72"/>
+      <c r="P214" s="72"/>
+      <c r="Q214" s="73"/>
+      <c r="R214" s="74"/>
       <c r="S214" s="29"/>
     </row>
     <row r="215" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10255,8 +10255,8 @@
       <c r="H215" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I215" s="59"/>
-      <c r="J215" s="61" t="s">
+      <c r="I215" s="60"/>
+      <c r="J215" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K215" s="57" t="s">
@@ -10295,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="58"/>
-      <c r="I216" s="60"/>
+      <c r="I216" s="61"/>
       <c r="J216" s="58"/>
       <c r="K216" s="2">
         <v>0</v>
@@ -10340,7 +10340,7 @@
         <f>F217+G217</f>
         <v>5766</v>
       </c>
-      <c r="I217" s="60"/>
+      <c r="I217" s="61"/>
       <c r="J217" s="2">
         <v>0</v>
       </c>
@@ -10426,18 +10426,18 @@
       <c r="S218" s="30"/>
     </row>
     <row r="219" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E219" s="72"/>
-      <c r="F219" s="73"/>
-      <c r="G219" s="73"/>
-      <c r="H219" s="73"/>
-      <c r="I219" s="73"/>
-      <c r="J219" s="73"/>
-      <c r="K219" s="73"/>
-      <c r="L219" s="73"/>
-      <c r="M219" s="73"/>
-      <c r="N219" s="73"/>
-      <c r="O219" s="73"/>
-      <c r="P219" s="73"/>
+      <c r="E219" s="62"/>
+      <c r="F219" s="63"/>
+      <c r="G219" s="63"/>
+      <c r="H219" s="63"/>
+      <c r="I219" s="63"/>
+      <c r="J219" s="63"/>
+      <c r="K219" s="63"/>
+      <c r="L219" s="63"/>
+      <c r="M219" s="63"/>
+      <c r="N219" s="63"/>
+      <c r="O219" s="63"/>
+      <c r="P219" s="63"/>
       <c r="Q219" s="35" t="s">
         <v>47</v>
       </c>
@@ -10494,8 +10494,8 @@
       <c r="H229" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I229" s="59"/>
-      <c r="J229" s="61" t="s">
+      <c r="I229" s="60"/>
+      <c r="J229" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K229" s="57" t="s">
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="H230" s="58"/>
-      <c r="I230" s="60"/>
+      <c r="I230" s="61"/>
       <c r="J230" s="58"/>
       <c r="K230" s="2">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <f>F231+G231</f>
         <v>11757</v>
       </c>
-      <c r="I231" s="60"/>
+      <c r="I231" s="61"/>
       <c r="J231" s="2">
         <v>0</v>
       </c>
@@ -10664,18 +10664,18 @@
       <c r="S232" s="30"/>
     </row>
     <row r="233" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E233" s="72"/>
-      <c r="F233" s="73"/>
-      <c r="G233" s="73"/>
-      <c r="H233" s="73"/>
-      <c r="I233" s="73"/>
-      <c r="J233" s="73"/>
-      <c r="K233" s="73"/>
-      <c r="L233" s="73"/>
-      <c r="M233" s="73"/>
-      <c r="N233" s="73"/>
-      <c r="O233" s="73"/>
-      <c r="P233" s="74"/>
+      <c r="E233" s="62"/>
+      <c r="F233" s="63"/>
+      <c r="G233" s="63"/>
+      <c r="H233" s="63"/>
+      <c r="I233" s="63"/>
+      <c r="J233" s="63"/>
+      <c r="K233" s="63"/>
+      <c r="L233" s="63"/>
+      <c r="M233" s="63"/>
+      <c r="N233" s="63"/>
+      <c r="O233" s="63"/>
+      <c r="P233" s="64"/>
       <c r="Q233" s="31" t="s">
         <v>47</v>
       </c>
@@ -10731,8 +10731,8 @@
       <c r="H236" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I236" s="59"/>
-      <c r="J236" s="61" t="s">
+      <c r="I236" s="60"/>
+      <c r="J236" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K236" s="57" t="s">
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="H237" s="58"/>
-      <c r="I237" s="60"/>
+      <c r="I237" s="61"/>
       <c r="J237" s="58"/>
       <c r="K237" s="2">
         <v>0</v>
@@ -10816,7 +10816,7 @@
         <f>F238+G238</f>
         <v>5841</v>
       </c>
-      <c r="I238" s="60"/>
+      <c r="I238" s="61"/>
       <c r="J238" s="2">
         <v>0</v>
       </c>
@@ -10902,18 +10902,18 @@
       <c r="S239" s="30"/>
     </row>
     <row r="240" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E240" s="72"/>
-      <c r="F240" s="73"/>
-      <c r="G240" s="73"/>
-      <c r="H240" s="73"/>
-      <c r="I240" s="73"/>
-      <c r="J240" s="73"/>
-      <c r="K240" s="73"/>
-      <c r="L240" s="73"/>
-      <c r="M240" s="73"/>
-      <c r="N240" s="73"/>
-      <c r="O240" s="73"/>
-      <c r="P240" s="74"/>
+      <c r="E240" s="62"/>
+      <c r="F240" s="63"/>
+      <c r="G240" s="63"/>
+      <c r="H240" s="63"/>
+      <c r="I240" s="63"/>
+      <c r="J240" s="63"/>
+      <c r="K240" s="63"/>
+      <c r="L240" s="63"/>
+      <c r="M240" s="63"/>
+      <c r="N240" s="63"/>
+      <c r="O240" s="63"/>
+      <c r="P240" s="64"/>
       <c r="Q240" s="31" t="s">
         <v>47</v>
       </c>
@@ -10923,39 +10923,39 @@
       <c r="S240" s="30"/>
     </row>
     <row r="241" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E241" s="62" t="s">
+      <c r="E241" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F241" s="63"/>
-      <c r="G241" s="63"/>
-      <c r="H241" s="63"/>
-      <c r="I241" s="63"/>
-      <c r="J241" s="63"/>
-      <c r="K241" s="63"/>
-      <c r="L241" s="63"/>
-      <c r="M241" s="63"/>
-      <c r="N241" s="63"/>
-      <c r="O241" s="64"/>
-      <c r="P241" s="64"/>
-      <c r="Q241" s="65"/>
-      <c r="R241" s="66"/>
+      <c r="F241" s="66"/>
+      <c r="G241" s="66"/>
+      <c r="H241" s="66"/>
+      <c r="I241" s="66"/>
+      <c r="J241" s="66"/>
+      <c r="K241" s="66"/>
+      <c r="L241" s="66"/>
+      <c r="M241" s="66"/>
+      <c r="N241" s="66"/>
+      <c r="O241" s="67"/>
+      <c r="P241" s="67"/>
+      <c r="Q241" s="68"/>
+      <c r="R241" s="69"/>
       <c r="S241" s="29"/>
     </row>
     <row r="242" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E242" s="67"/>
-      <c r="F242" s="68"/>
-      <c r="G242" s="68"/>
-      <c r="H242" s="68"/>
-      <c r="I242" s="68"/>
-      <c r="J242" s="68"/>
-      <c r="K242" s="68"/>
-      <c r="L242" s="68"/>
-      <c r="M242" s="68"/>
-      <c r="N242" s="68"/>
-      <c r="O242" s="69"/>
-      <c r="P242" s="69"/>
-      <c r="Q242" s="70"/>
-      <c r="R242" s="71"/>
+      <c r="E242" s="70"/>
+      <c r="F242" s="71"/>
+      <c r="G242" s="71"/>
+      <c r="H242" s="71"/>
+      <c r="I242" s="71"/>
+      <c r="J242" s="71"/>
+      <c r="K242" s="71"/>
+      <c r="L242" s="71"/>
+      <c r="M242" s="71"/>
+      <c r="N242" s="71"/>
+      <c r="O242" s="72"/>
+      <c r="P242" s="72"/>
+      <c r="Q242" s="73"/>
+      <c r="R242" s="74"/>
       <c r="S242" s="29"/>
     </row>
     <row r="243" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10969,8 +10969,8 @@
       <c r="H243" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I243" s="59"/>
-      <c r="J243" s="61" t="s">
+      <c r="I243" s="60"/>
+      <c r="J243" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K243" s="57" t="s">
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="H244" s="58"/>
-      <c r="I244" s="60"/>
+      <c r="I244" s="61"/>
       <c r="J244" s="58"/>
       <c r="K244" s="2">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         <f>F245+G245</f>
         <v>5766</v>
       </c>
-      <c r="I245" s="60"/>
+      <c r="I245" s="61"/>
       <c r="J245" s="2">
         <v>0</v>
       </c>
@@ -11140,18 +11140,18 @@
       <c r="S246" s="30"/>
     </row>
     <row r="247" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E247" s="72"/>
-      <c r="F247" s="73"/>
-      <c r="G247" s="73"/>
-      <c r="H247" s="73"/>
-      <c r="I247" s="73"/>
-      <c r="J247" s="73"/>
-      <c r="K247" s="73"/>
-      <c r="L247" s="73"/>
-      <c r="M247" s="73"/>
-      <c r="N247" s="73"/>
-      <c r="O247" s="73"/>
-      <c r="P247" s="73"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="63"/>
+      <c r="G247" s="63"/>
+      <c r="H247" s="63"/>
+      <c r="I247" s="63"/>
+      <c r="J247" s="63"/>
+      <c r="K247" s="63"/>
+      <c r="L247" s="63"/>
+      <c r="M247" s="63"/>
+      <c r="N247" s="63"/>
+      <c r="O247" s="63"/>
+      <c r="P247" s="63"/>
       <c r="Q247" s="35" t="s">
         <v>47</v>
       </c>
@@ -11208,8 +11208,8 @@
       <c r="H253" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I253" s="59"/>
-      <c r="J253" s="61" t="s">
+      <c r="I253" s="60"/>
+      <c r="J253" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K253" s="57" t="s">
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="H254" s="58"/>
-      <c r="I254" s="60"/>
+      <c r="I254" s="61"/>
       <c r="J254" s="58"/>
       <c r="K254" s="2">
         <v>0</v>
@@ -11292,7 +11292,7 @@
         <f>F255+G255</f>
         <v>11757</v>
       </c>
-      <c r="I255" s="60"/>
+      <c r="I255" s="61"/>
       <c r="J255" s="2">
         <v>0</v>
       </c>
@@ -11378,18 +11378,18 @@
       <c r="S256" s="30"/>
     </row>
     <row r="257" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E257" s="72"/>
-      <c r="F257" s="73"/>
-      <c r="G257" s="73"/>
-      <c r="H257" s="73"/>
-      <c r="I257" s="73"/>
-      <c r="J257" s="73"/>
-      <c r="K257" s="73"/>
-      <c r="L257" s="73"/>
-      <c r="M257" s="73"/>
-      <c r="N257" s="73"/>
-      <c r="O257" s="73"/>
-      <c r="P257" s="74"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="63"/>
+      <c r="H257" s="63"/>
+      <c r="I257" s="63"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="63"/>
+      <c r="L257" s="63"/>
+      <c r="M257" s="63"/>
+      <c r="N257" s="63"/>
+      <c r="O257" s="63"/>
+      <c r="P257" s="64"/>
       <c r="Q257" s="31" t="s">
         <v>47</v>
       </c>
@@ -11445,8 +11445,8 @@
       <c r="H260" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I260" s="59"/>
-      <c r="J260" s="61" t="s">
+      <c r="I260" s="60"/>
+      <c r="J260" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K260" s="57" t="s">
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="H261" s="58"/>
-      <c r="I261" s="60"/>
+      <c r="I261" s="61"/>
       <c r="J261" s="58"/>
       <c r="K261" s="2">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <f>F262+G262</f>
         <v>5841</v>
       </c>
-      <c r="I262" s="60"/>
+      <c r="I262" s="61"/>
       <c r="J262" s="2">
         <v>0</v>
       </c>
@@ -11616,18 +11616,18 @@
       <c r="S263" s="30"/>
     </row>
     <row r="264" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E264" s="72"/>
-      <c r="F264" s="73"/>
-      <c r="G264" s="73"/>
-      <c r="H264" s="73"/>
-      <c r="I264" s="73"/>
-      <c r="J264" s="73"/>
-      <c r="K264" s="73"/>
-      <c r="L264" s="73"/>
-      <c r="M264" s="73"/>
-      <c r="N264" s="73"/>
-      <c r="O264" s="73"/>
-      <c r="P264" s="74"/>
+      <c r="E264" s="62"/>
+      <c r="F264" s="63"/>
+      <c r="G264" s="63"/>
+      <c r="H264" s="63"/>
+      <c r="I264" s="63"/>
+      <c r="J264" s="63"/>
+      <c r="K264" s="63"/>
+      <c r="L264" s="63"/>
+      <c r="M264" s="63"/>
+      <c r="N264" s="63"/>
+      <c r="O264" s="63"/>
+      <c r="P264" s="64"/>
       <c r="Q264" s="31" t="s">
         <v>47</v>
       </c>
@@ -11637,39 +11637,39 @@
       <c r="S264" s="30"/>
     </row>
     <row r="265" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E265" s="62" t="s">
+      <c r="E265" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F265" s="63"/>
-      <c r="G265" s="63"/>
-      <c r="H265" s="63"/>
-      <c r="I265" s="63"/>
-      <c r="J265" s="63"/>
-      <c r="K265" s="63"/>
-      <c r="L265" s="63"/>
-      <c r="M265" s="63"/>
-      <c r="N265" s="63"/>
-      <c r="O265" s="64"/>
-      <c r="P265" s="64"/>
-      <c r="Q265" s="65"/>
-      <c r="R265" s="66"/>
+      <c r="F265" s="66"/>
+      <c r="G265" s="66"/>
+      <c r="H265" s="66"/>
+      <c r="I265" s="66"/>
+      <c r="J265" s="66"/>
+      <c r="K265" s="66"/>
+      <c r="L265" s="66"/>
+      <c r="M265" s="66"/>
+      <c r="N265" s="66"/>
+      <c r="O265" s="67"/>
+      <c r="P265" s="67"/>
+      <c r="Q265" s="68"/>
+      <c r="R265" s="69"/>
       <c r="S265" s="29"/>
     </row>
     <row r="266" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E266" s="67"/>
-      <c r="F266" s="68"/>
-      <c r="G266" s="68"/>
-      <c r="H266" s="68"/>
-      <c r="I266" s="68"/>
-      <c r="J266" s="68"/>
-      <c r="K266" s="68"/>
-      <c r="L266" s="68"/>
-      <c r="M266" s="68"/>
-      <c r="N266" s="68"/>
-      <c r="O266" s="69"/>
-      <c r="P266" s="69"/>
-      <c r="Q266" s="70"/>
-      <c r="R266" s="71"/>
+      <c r="E266" s="70"/>
+      <c r="F266" s="71"/>
+      <c r="G266" s="71"/>
+      <c r="H266" s="71"/>
+      <c r="I266" s="71"/>
+      <c r="J266" s="71"/>
+      <c r="K266" s="71"/>
+      <c r="L266" s="71"/>
+      <c r="M266" s="71"/>
+      <c r="N266" s="71"/>
+      <c r="O266" s="72"/>
+      <c r="P266" s="72"/>
+      <c r="Q266" s="73"/>
+      <c r="R266" s="74"/>
       <c r="S266" s="29"/>
     </row>
     <row r="267" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11683,8 +11683,8 @@
       <c r="H267" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I267" s="59"/>
-      <c r="J267" s="61" t="s">
+      <c r="I267" s="60"/>
+      <c r="J267" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K267" s="57" t="s">
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="H268" s="58"/>
-      <c r="I268" s="60"/>
+      <c r="I268" s="61"/>
       <c r="J268" s="58"/>
       <c r="K268" s="2">
         <v>0</v>
@@ -11768,7 +11768,7 @@
         <f>F269+G269</f>
         <v>5856</v>
       </c>
-      <c r="I269" s="60"/>
+      <c r="I269" s="61"/>
       <c r="J269" s="2">
         <v>0</v>
       </c>
@@ -11854,18 +11854,18 @@
       <c r="S270" s="30"/>
     </row>
     <row r="271" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E271" s="72"/>
-      <c r="F271" s="73"/>
-      <c r="G271" s="73"/>
-      <c r="H271" s="73"/>
-      <c r="I271" s="73"/>
-      <c r="J271" s="73"/>
-      <c r="K271" s="73"/>
-      <c r="L271" s="73"/>
-      <c r="M271" s="73"/>
-      <c r="N271" s="73"/>
-      <c r="O271" s="73"/>
-      <c r="P271" s="73"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="63"/>
+      <c r="H271" s="63"/>
+      <c r="I271" s="63"/>
+      <c r="J271" s="63"/>
+      <c r="K271" s="63"/>
+      <c r="L271" s="63"/>
+      <c r="M271" s="63"/>
+      <c r="N271" s="63"/>
+      <c r="O271" s="63"/>
+      <c r="P271" s="63"/>
       <c r="Q271" s="35" t="s">
         <v>47</v>
       </c>
@@ -11922,8 +11922,8 @@
       <c r="H277" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I277" s="59"/>
-      <c r="J277" s="61" t="s">
+      <c r="I277" s="60"/>
+      <c r="J277" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K277" s="57" t="s">
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="H278" s="58"/>
-      <c r="I278" s="60"/>
+      <c r="I278" s="61"/>
       <c r="J278" s="58"/>
       <c r="K278" s="2">
         <v>0</v>
@@ -12006,7 +12006,7 @@
         <f>F279+G279</f>
         <v>11757</v>
       </c>
-      <c r="I279" s="60"/>
+      <c r="I279" s="61"/>
       <c r="J279" s="2">
         <v>0</v>
       </c>
@@ -12092,18 +12092,18 @@
       <c r="S280" s="30"/>
     </row>
     <row r="281" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E281" s="72"/>
-      <c r="F281" s="73"/>
-      <c r="G281" s="73"/>
-      <c r="H281" s="73"/>
-      <c r="I281" s="73"/>
-      <c r="J281" s="73"/>
-      <c r="K281" s="73"/>
-      <c r="L281" s="73"/>
-      <c r="M281" s="73"/>
-      <c r="N281" s="73"/>
-      <c r="O281" s="73"/>
-      <c r="P281" s="74"/>
+      <c r="E281" s="62"/>
+      <c r="F281" s="63"/>
+      <c r="G281" s="63"/>
+      <c r="H281" s="63"/>
+      <c r="I281" s="63"/>
+      <c r="J281" s="63"/>
+      <c r="K281" s="63"/>
+      <c r="L281" s="63"/>
+      <c r="M281" s="63"/>
+      <c r="N281" s="63"/>
+      <c r="O281" s="63"/>
+      <c r="P281" s="64"/>
       <c r="Q281" s="31" t="s">
         <v>47</v>
       </c>
@@ -12159,8 +12159,8 @@
       <c r="H284" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I284" s="59"/>
-      <c r="J284" s="61" t="s">
+      <c r="I284" s="60"/>
+      <c r="J284" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K284" s="57" t="s">
@@ -12199,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="H285" s="58"/>
-      <c r="I285" s="60"/>
+      <c r="I285" s="61"/>
       <c r="J285" s="58"/>
       <c r="K285" s="2">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <f>F286+G286</f>
         <v>5841</v>
       </c>
-      <c r="I286" s="60"/>
+      <c r="I286" s="61"/>
       <c r="J286" s="2">
         <v>0</v>
       </c>
@@ -12330,18 +12330,18 @@
       <c r="S287" s="30"/>
     </row>
     <row r="288" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E288" s="72"/>
-      <c r="F288" s="73"/>
-      <c r="G288" s="73"/>
-      <c r="H288" s="73"/>
-      <c r="I288" s="73"/>
-      <c r="J288" s="73"/>
-      <c r="K288" s="73"/>
-      <c r="L288" s="73"/>
-      <c r="M288" s="73"/>
-      <c r="N288" s="73"/>
-      <c r="O288" s="73"/>
-      <c r="P288" s="74"/>
+      <c r="E288" s="62"/>
+      <c r="F288" s="63"/>
+      <c r="G288" s="63"/>
+      <c r="H288" s="63"/>
+      <c r="I288" s="63"/>
+      <c r="J288" s="63"/>
+      <c r="K288" s="63"/>
+      <c r="L288" s="63"/>
+      <c r="M288" s="63"/>
+      <c r="N288" s="63"/>
+      <c r="O288" s="63"/>
+      <c r="P288" s="64"/>
       <c r="Q288" s="31" t="s">
         <v>47</v>
       </c>
@@ -12351,39 +12351,39 @@
       <c r="S288" s="30"/>
     </row>
     <row r="289" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E289" s="62" t="s">
+      <c r="E289" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F289" s="63"/>
-      <c r="G289" s="63"/>
-      <c r="H289" s="63"/>
-      <c r="I289" s="63"/>
-      <c r="J289" s="63"/>
-      <c r="K289" s="63"/>
-      <c r="L289" s="63"/>
-      <c r="M289" s="63"/>
-      <c r="N289" s="63"/>
-      <c r="O289" s="64"/>
-      <c r="P289" s="64"/>
-      <c r="Q289" s="65"/>
-      <c r="R289" s="66"/>
+      <c r="F289" s="66"/>
+      <c r="G289" s="66"/>
+      <c r="H289" s="66"/>
+      <c r="I289" s="66"/>
+      <c r="J289" s="66"/>
+      <c r="K289" s="66"/>
+      <c r="L289" s="66"/>
+      <c r="M289" s="66"/>
+      <c r="N289" s="66"/>
+      <c r="O289" s="67"/>
+      <c r="P289" s="67"/>
+      <c r="Q289" s="68"/>
+      <c r="R289" s="69"/>
       <c r="S289" s="29"/>
     </row>
     <row r="290" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E290" s="67"/>
-      <c r="F290" s="68"/>
-      <c r="G290" s="68"/>
-      <c r="H290" s="68"/>
-      <c r="I290" s="68"/>
-      <c r="J290" s="68"/>
-      <c r="K290" s="68"/>
-      <c r="L290" s="68"/>
-      <c r="M290" s="68"/>
-      <c r="N290" s="68"/>
-      <c r="O290" s="69"/>
-      <c r="P290" s="69"/>
-      <c r="Q290" s="70"/>
-      <c r="R290" s="71"/>
+      <c r="E290" s="70"/>
+      <c r="F290" s="71"/>
+      <c r="G290" s="71"/>
+      <c r="H290" s="71"/>
+      <c r="I290" s="71"/>
+      <c r="J290" s="71"/>
+      <c r="K290" s="71"/>
+      <c r="L290" s="71"/>
+      <c r="M290" s="71"/>
+      <c r="N290" s="71"/>
+      <c r="O290" s="72"/>
+      <c r="P290" s="72"/>
+      <c r="Q290" s="73"/>
+      <c r="R290" s="74"/>
       <c r="S290" s="29"/>
     </row>
     <row r="291" spans="5:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12397,8 +12397,8 @@
       <c r="H291" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I291" s="59"/>
-      <c r="J291" s="61" t="s">
+      <c r="I291" s="60"/>
+      <c r="J291" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K291" s="57" t="s">
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="H292" s="58"/>
-      <c r="I292" s="60"/>
+      <c r="I292" s="61"/>
       <c r="J292" s="58"/>
       <c r="K292" s="2">
         <v>0</v>
@@ -12482,7 +12482,7 @@
         <f>F293+G293</f>
         <v>5766</v>
       </c>
-      <c r="I293" s="60"/>
+      <c r="I293" s="61"/>
       <c r="J293" s="2">
         <v>0</v>
       </c>
@@ -12568,18 +12568,18 @@
       <c r="S294" s="30"/>
     </row>
     <row r="295" spans="5:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E295" s="72"/>
-      <c r="F295" s="73"/>
-      <c r="G295" s="73"/>
-      <c r="H295" s="73"/>
-      <c r="I295" s="73"/>
-      <c r="J295" s="73"/>
-      <c r="K295" s="73"/>
-      <c r="L295" s="73"/>
-      <c r="M295" s="73"/>
-      <c r="N295" s="73"/>
-      <c r="O295" s="73"/>
-      <c r="P295" s="73"/>
+      <c r="E295" s="62"/>
+      <c r="F295" s="63"/>
+      <c r="G295" s="63"/>
+      <c r="H295" s="63"/>
+      <c r="I295" s="63"/>
+      <c r="J295" s="63"/>
+      <c r="K295" s="63"/>
+      <c r="L295" s="63"/>
+      <c r="M295" s="63"/>
+      <c r="N295" s="63"/>
+      <c r="O295" s="63"/>
+      <c r="P295" s="63"/>
       <c r="Q295" s="35" t="s">
         <v>47</v>
       </c>
@@ -12634,8 +12634,8 @@
       <c r="H303" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I303" s="59"/>
-      <c r="J303" s="61" t="s">
+      <c r="I303" s="60"/>
+      <c r="J303" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K303" s="57" t="s">
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="58"/>
-      <c r="I304" s="60"/>
+      <c r="I304" s="61"/>
       <c r="J304" s="58"/>
       <c r="K304" s="2">
         <v>0</v>
@@ -12716,7 +12716,7 @@
         <f>F305+G305</f>
         <v>11757</v>
       </c>
-      <c r="I305" s="60"/>
+      <c r="I305" s="61"/>
       <c r="J305" s="2">
         <v>0</v>
       </c>
@@ -12800,18 +12800,18 @@
       </c>
     </row>
     <row r="307" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E307" s="72"/>
-      <c r="F307" s="73"/>
-      <c r="G307" s="73"/>
-      <c r="H307" s="73"/>
-      <c r="I307" s="73"/>
-      <c r="J307" s="73"/>
-      <c r="K307" s="73"/>
-      <c r="L307" s="73"/>
-      <c r="M307" s="73"/>
-      <c r="N307" s="73"/>
-      <c r="O307" s="73"/>
-      <c r="P307" s="74"/>
+      <c r="E307" s="62"/>
+      <c r="F307" s="63"/>
+      <c r="G307" s="63"/>
+      <c r="H307" s="63"/>
+      <c r="I307" s="63"/>
+      <c r="J307" s="63"/>
+      <c r="K307" s="63"/>
+      <c r="L307" s="63"/>
+      <c r="M307" s="63"/>
+      <c r="N307" s="63"/>
+      <c r="O307" s="63"/>
+      <c r="P307" s="64"/>
       <c r="Q307" s="31" t="s">
         <v>47</v>
       </c>
@@ -12864,8 +12864,8 @@
       <c r="H310" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I310" s="59"/>
-      <c r="J310" s="61" t="s">
+      <c r="I310" s="60"/>
+      <c r="J310" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K310" s="57" t="s">
@@ -12902,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="H311" s="58"/>
-      <c r="I311" s="60"/>
+      <c r="I311" s="61"/>
       <c r="J311" s="58"/>
       <c r="K311" s="2">
         <v>0</v>
@@ -12946,7 +12946,7 @@
         <f>F312+G312</f>
         <v>5841</v>
       </c>
-      <c r="I312" s="60"/>
+      <c r="I312" s="61"/>
       <c r="J312" s="2">
         <v>0</v>
       </c>
@@ -13030,18 +13030,18 @@
       </c>
     </row>
     <row r="314" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E314" s="72"/>
-      <c r="F314" s="73"/>
-      <c r="G314" s="73"/>
-      <c r="H314" s="73"/>
-      <c r="I314" s="73"/>
-      <c r="J314" s="73"/>
-      <c r="K314" s="73"/>
-      <c r="L314" s="73"/>
-      <c r="M314" s="73"/>
-      <c r="N314" s="73"/>
-      <c r="O314" s="73"/>
-      <c r="P314" s="74"/>
+      <c r="E314" s="62"/>
+      <c r="F314" s="63"/>
+      <c r="G314" s="63"/>
+      <c r="H314" s="63"/>
+      <c r="I314" s="63"/>
+      <c r="J314" s="63"/>
+      <c r="K314" s="63"/>
+      <c r="L314" s="63"/>
+      <c r="M314" s="63"/>
+      <c r="N314" s="63"/>
+      <c r="O314" s="63"/>
+      <c r="P314" s="64"/>
       <c r="Q314" s="31" t="s">
         <v>47</v>
       </c>
@@ -13050,38 +13050,38 @@
       </c>
     </row>
     <row r="315" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E315" s="62" t="s">
+      <c r="E315" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F315" s="63"/>
-      <c r="G315" s="63"/>
-      <c r="H315" s="63"/>
-      <c r="I315" s="63"/>
-      <c r="J315" s="63"/>
-      <c r="K315" s="63"/>
-      <c r="L315" s="63"/>
-      <c r="M315" s="63"/>
-      <c r="N315" s="63"/>
-      <c r="O315" s="64"/>
-      <c r="P315" s="64"/>
-      <c r="Q315" s="65"/>
-      <c r="R315" s="66"/>
+      <c r="F315" s="66"/>
+      <c r="G315" s="66"/>
+      <c r="H315" s="66"/>
+      <c r="I315" s="66"/>
+      <c r="J315" s="66"/>
+      <c r="K315" s="66"/>
+      <c r="L315" s="66"/>
+      <c r="M315" s="66"/>
+      <c r="N315" s="66"/>
+      <c r="O315" s="67"/>
+      <c r="P315" s="67"/>
+      <c r="Q315" s="68"/>
+      <c r="R315" s="69"/>
     </row>
     <row r="316" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E316" s="67"/>
-      <c r="F316" s="68"/>
-      <c r="G316" s="68"/>
-      <c r="H316" s="68"/>
-      <c r="I316" s="68"/>
-      <c r="J316" s="68"/>
-      <c r="K316" s="68"/>
-      <c r="L316" s="68"/>
-      <c r="M316" s="68"/>
-      <c r="N316" s="68"/>
-      <c r="O316" s="69"/>
-      <c r="P316" s="69"/>
-      <c r="Q316" s="70"/>
-      <c r="R316" s="71"/>
+      <c r="E316" s="70"/>
+      <c r="F316" s="71"/>
+      <c r="G316" s="71"/>
+      <c r="H316" s="71"/>
+      <c r="I316" s="71"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="71"/>
+      <c r="L316" s="71"/>
+      <c r="M316" s="71"/>
+      <c r="N316" s="71"/>
+      <c r="O316" s="72"/>
+      <c r="P316" s="72"/>
+      <c r="Q316" s="73"/>
+      <c r="R316" s="74"/>
     </row>
     <row r="317" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E317" s="55" t="s">
@@ -13094,8 +13094,8 @@
       <c r="H317" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I317" s="59"/>
-      <c r="J317" s="61" t="s">
+      <c r="I317" s="60"/>
+      <c r="J317" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K317" s="57" t="s">
@@ -13132,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="H318" s="58"/>
-      <c r="I318" s="60"/>
+      <c r="I318" s="61"/>
       <c r="J318" s="58"/>
       <c r="K318" s="2">
         <v>0</v>
@@ -13176,7 +13176,7 @@
         <f>F319+G319</f>
         <v>5766</v>
       </c>
-      <c r="I319" s="60"/>
+      <c r="I319" s="61"/>
       <c r="J319" s="2">
         <v>0</v>
       </c>
@@ -13260,18 +13260,18 @@
       </c>
     </row>
     <row r="321" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E321" s="72"/>
-      <c r="F321" s="73"/>
-      <c r="G321" s="73"/>
-      <c r="H321" s="73"/>
-      <c r="I321" s="73"/>
-      <c r="J321" s="73"/>
-      <c r="K321" s="73"/>
-      <c r="L321" s="73"/>
-      <c r="M321" s="73"/>
-      <c r="N321" s="73"/>
-      <c r="O321" s="73"/>
-      <c r="P321" s="73"/>
+      <c r="E321" s="62"/>
+      <c r="F321" s="63"/>
+      <c r="G321" s="63"/>
+      <c r="H321" s="63"/>
+      <c r="I321" s="63"/>
+      <c r="J321" s="63"/>
+      <c r="K321" s="63"/>
+      <c r="L321" s="63"/>
+      <c r="M321" s="63"/>
+      <c r="N321" s="63"/>
+      <c r="O321" s="63"/>
+      <c r="P321" s="63"/>
       <c r="Q321" s="35" t="s">
         <v>47</v>
       </c>
@@ -13325,8 +13325,8 @@
       <c r="H326" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I326" s="59"/>
-      <c r="J326" s="61" t="s">
+      <c r="I326" s="60"/>
+      <c r="J326" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K326" s="57" t="s">
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="H327" s="58"/>
-      <c r="I327" s="60"/>
+      <c r="I327" s="61"/>
       <c r="J327" s="58"/>
       <c r="K327" s="2">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <f>F328+G328</f>
         <v>11757</v>
       </c>
-      <c r="I328" s="60"/>
+      <c r="I328" s="61"/>
       <c r="J328" s="2">
         <v>0</v>
       </c>
@@ -13489,18 +13489,18 @@
       </c>
     </row>
     <row r="330" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E330" s="72"/>
-      <c r="F330" s="73"/>
-      <c r="G330" s="73"/>
-      <c r="H330" s="73"/>
-      <c r="I330" s="73"/>
-      <c r="J330" s="73"/>
-      <c r="K330" s="73"/>
-      <c r="L330" s="73"/>
-      <c r="M330" s="73"/>
-      <c r="N330" s="73"/>
-      <c r="O330" s="73"/>
-      <c r="P330" s="74"/>
+      <c r="E330" s="62"/>
+      <c r="F330" s="63"/>
+      <c r="G330" s="63"/>
+      <c r="H330" s="63"/>
+      <c r="I330" s="63"/>
+      <c r="J330" s="63"/>
+      <c r="K330" s="63"/>
+      <c r="L330" s="63"/>
+      <c r="M330" s="63"/>
+      <c r="N330" s="63"/>
+      <c r="O330" s="63"/>
+      <c r="P330" s="64"/>
       <c r="Q330" s="31" t="s">
         <v>47</v>
       </c>
@@ -13553,8 +13553,8 @@
       <c r="H333" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I333" s="59"/>
-      <c r="J333" s="61" t="s">
+      <c r="I333" s="60"/>
+      <c r="J333" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K333" s="57" t="s">
@@ -13589,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="H334" s="58"/>
-      <c r="I334" s="60"/>
+      <c r="I334" s="61"/>
       <c r="J334" s="58"/>
       <c r="K334" s="2">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <f>F335+G335</f>
         <v>5841</v>
       </c>
-      <c r="I335" s="60"/>
+      <c r="I335" s="61"/>
       <c r="J335" s="2">
         <v>0</v>
       </c>
@@ -13717,18 +13717,18 @@
       </c>
     </row>
     <row r="337" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E337" s="72"/>
-      <c r="F337" s="73"/>
-      <c r="G337" s="73"/>
-      <c r="H337" s="73"/>
-      <c r="I337" s="73"/>
-      <c r="J337" s="73"/>
-      <c r="K337" s="73"/>
-      <c r="L337" s="73"/>
-      <c r="M337" s="73"/>
-      <c r="N337" s="73"/>
-      <c r="O337" s="73"/>
-      <c r="P337" s="74"/>
+      <c r="E337" s="62"/>
+      <c r="F337" s="63"/>
+      <c r="G337" s="63"/>
+      <c r="H337" s="63"/>
+      <c r="I337" s="63"/>
+      <c r="J337" s="63"/>
+      <c r="K337" s="63"/>
+      <c r="L337" s="63"/>
+      <c r="M337" s="63"/>
+      <c r="N337" s="63"/>
+      <c r="O337" s="63"/>
+      <c r="P337" s="64"/>
       <c r="Q337" s="31" t="s">
         <v>47</v>
       </c>
@@ -13737,38 +13737,38 @@
       </c>
     </row>
     <row r="338" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="E338" s="62" t="s">
+      <c r="E338" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F338" s="63"/>
-      <c r="G338" s="63"/>
-      <c r="H338" s="63"/>
-      <c r="I338" s="63"/>
-      <c r="J338" s="63"/>
-      <c r="K338" s="63"/>
-      <c r="L338" s="63"/>
-      <c r="M338" s="63"/>
-      <c r="N338" s="63"/>
-      <c r="O338" s="64"/>
-      <c r="P338" s="64"/>
-      <c r="Q338" s="65"/>
-      <c r="R338" s="66"/>
+      <c r="F338" s="66"/>
+      <c r="G338" s="66"/>
+      <c r="H338" s="66"/>
+      <c r="I338" s="66"/>
+      <c r="J338" s="66"/>
+      <c r="K338" s="66"/>
+      <c r="L338" s="66"/>
+      <c r="M338" s="66"/>
+      <c r="N338" s="66"/>
+      <c r="O338" s="67"/>
+      <c r="P338" s="67"/>
+      <c r="Q338" s="68"/>
+      <c r="R338" s="69"/>
     </row>
     <row r="339" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E339" s="67"/>
-      <c r="F339" s="68"/>
-      <c r="G339" s="68"/>
-      <c r="H339" s="68"/>
-      <c r="I339" s="68"/>
-      <c r="J339" s="68"/>
-      <c r="K339" s="68"/>
-      <c r="L339" s="68"/>
-      <c r="M339" s="68"/>
-      <c r="N339" s="68"/>
-      <c r="O339" s="69"/>
-      <c r="P339" s="69"/>
-      <c r="Q339" s="70"/>
-      <c r="R339" s="71"/>
+      <c r="E339" s="70"/>
+      <c r="F339" s="71"/>
+      <c r="G339" s="71"/>
+      <c r="H339" s="71"/>
+      <c r="I339" s="71"/>
+      <c r="J339" s="71"/>
+      <c r="K339" s="71"/>
+      <c r="L339" s="71"/>
+      <c r="M339" s="71"/>
+      <c r="N339" s="71"/>
+      <c r="O339" s="72"/>
+      <c r="P339" s="72"/>
+      <c r="Q339" s="73"/>
+      <c r="R339" s="74"/>
     </row>
     <row r="340" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E340" s="55" t="s">
@@ -13781,8 +13781,8 @@
       <c r="H340" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I340" s="59"/>
-      <c r="J340" s="61" t="s">
+      <c r="I340" s="60"/>
+      <c r="J340" s="59" t="s">
         <v>0</v>
       </c>
       <c r="K340" s="57" t="s">
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="H341" s="58"/>
-      <c r="I341" s="60"/>
+      <c r="I341" s="61"/>
       <c r="J341" s="58"/>
       <c r="K341" s="2">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <f>F342+G342</f>
         <v>5766</v>
       </c>
-      <c r="I342" s="60"/>
+      <c r="I342" s="61"/>
       <c r="J342" s="2">
         <v>0</v>
       </c>
@@ -13945,18 +13945,18 @@
       </c>
     </row>
     <row r="344" spans="5:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E344" s="72"/>
-      <c r="F344" s="73"/>
-      <c r="G344" s="73"/>
-      <c r="H344" s="73"/>
-      <c r="I344" s="73"/>
-      <c r="J344" s="73"/>
-      <c r="K344" s="73"/>
-      <c r="L344" s="73"/>
-      <c r="M344" s="73"/>
-      <c r="N344" s="73"/>
-      <c r="O344" s="73"/>
-      <c r="P344" s="73"/>
+      <c r="E344" s="62"/>
+      <c r="F344" s="63"/>
+      <c r="G344" s="63"/>
+      <c r="H344" s="63"/>
+      <c r="I344" s="63"/>
+      <c r="J344" s="63"/>
+      <c r="K344" s="63"/>
+      <c r="L344" s="63"/>
+      <c r="M344" s="63"/>
+      <c r="N344" s="63"/>
+      <c r="O344" s="63"/>
+      <c r="P344" s="63"/>
       <c r="Q344" s="35" t="s">
         <v>47</v>
       </c>
@@ -13966,54 +13966,270 @@
     </row>
   </sheetData>
   <mergeCells count="336">
-    <mergeCell ref="E340:E341"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="H340:H341"/>
-    <mergeCell ref="I340:I343"/>
-    <mergeCell ref="J340:J341"/>
-    <mergeCell ref="K340:L340"/>
-    <mergeCell ref="E344:P344"/>
-    <mergeCell ref="E331:R332"/>
-    <mergeCell ref="E333:E334"/>
-    <mergeCell ref="F333:G333"/>
-    <mergeCell ref="H333:H334"/>
-    <mergeCell ref="I333:I336"/>
-    <mergeCell ref="J333:J334"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="E337:P337"/>
-    <mergeCell ref="E338:R339"/>
-    <mergeCell ref="E321:P321"/>
-    <mergeCell ref="E324:R325"/>
-    <mergeCell ref="E326:E327"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="H326:H327"/>
-    <mergeCell ref="I326:I329"/>
-    <mergeCell ref="J326:J327"/>
-    <mergeCell ref="K326:L326"/>
-    <mergeCell ref="E330:P330"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="H310:H311"/>
-    <mergeCell ref="I310:I313"/>
-    <mergeCell ref="J310:J311"/>
-    <mergeCell ref="K310:L310"/>
-    <mergeCell ref="E314:P314"/>
-    <mergeCell ref="E315:R316"/>
-    <mergeCell ref="E317:E318"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:H318"/>
-    <mergeCell ref="I317:I320"/>
-    <mergeCell ref="J317:J318"/>
-    <mergeCell ref="K317:L317"/>
-    <mergeCell ref="E301:R302"/>
-    <mergeCell ref="E303:E304"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="H303:H304"/>
-    <mergeCell ref="I303:I306"/>
-    <mergeCell ref="J303:J304"/>
-    <mergeCell ref="K303:L303"/>
-    <mergeCell ref="E307:P307"/>
-    <mergeCell ref="E308:R309"/>
+    <mergeCell ref="E295:P295"/>
+    <mergeCell ref="E247:P247"/>
+    <mergeCell ref="E265:R266"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="H267:H268"/>
+    <mergeCell ref="I267:I270"/>
+    <mergeCell ref="J267:J268"/>
+    <mergeCell ref="K267:L267"/>
+    <mergeCell ref="E271:P271"/>
+    <mergeCell ref="E288:P288"/>
+    <mergeCell ref="I253:I256"/>
+    <mergeCell ref="J253:J254"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="E227:R228"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="I229:I232"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="E289:R290"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="I291:I294"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="K291:L291"/>
+    <mergeCell ref="E241:R242"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="I243:I246"/>
+    <mergeCell ref="J243:J244"/>
+    <mergeCell ref="K243:L243"/>
+    <mergeCell ref="E234:R235"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="I236:I239"/>
+    <mergeCell ref="J236:J237"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="E156:R157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="E149:R150"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I154"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="E163:R164"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I168"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="E169:P169"/>
+    <mergeCell ref="E162:P162"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="E120:P120"/>
+    <mergeCell ref="E139:R140"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I144"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="E16:R17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="E40:R41"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="E212:P212"/>
+    <mergeCell ref="E233:P233"/>
+    <mergeCell ref="E240:P240"/>
+    <mergeCell ref="E257:P257"/>
+    <mergeCell ref="E264:P264"/>
+    <mergeCell ref="E281:P281"/>
+    <mergeCell ref="E188:R189"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="I190:I193"/>
+    <mergeCell ref="J190:J191"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="E194:P194"/>
+    <mergeCell ref="H260:H261"/>
+    <mergeCell ref="I260:I263"/>
+    <mergeCell ref="J260:J261"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="E251:R252"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:H254"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="E219:P219"/>
+    <mergeCell ref="E213:R214"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="I215:I218"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="E39:P39"/>
+    <mergeCell ref="E55:P55"/>
+    <mergeCell ref="E62:P62"/>
+    <mergeCell ref="E79:P79"/>
+    <mergeCell ref="E86:P86"/>
+    <mergeCell ref="E106:P106"/>
+    <mergeCell ref="E113:P113"/>
+    <mergeCell ref="E131:P131"/>
+    <mergeCell ref="E138:P138"/>
+    <mergeCell ref="E69:P69"/>
+    <mergeCell ref="E87:R88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="E187:P187"/>
+    <mergeCell ref="E93:P93"/>
+    <mergeCell ref="E114:R115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="E282:R283"/>
+    <mergeCell ref="E284:E285"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="H284:H285"/>
+    <mergeCell ref="I284:I287"/>
+    <mergeCell ref="J284:J285"/>
+    <mergeCell ref="K284:L284"/>
+    <mergeCell ref="E275:R276"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:G277"/>
+    <mergeCell ref="H277:H278"/>
+    <mergeCell ref="I277:I280"/>
+    <mergeCell ref="J277:J278"/>
+    <mergeCell ref="K277:L277"/>
+    <mergeCell ref="E258:R259"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="E206:R207"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I211"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="E199:R200"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I204"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="E205:P205"/>
+    <mergeCell ref="E181:R182"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="I183:I186"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="E174:R175"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="I176:I179"/>
+    <mergeCell ref="J176:J177"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="E180:P180"/>
+    <mergeCell ref="E155:P155"/>
+    <mergeCell ref="E132:R133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="E125:R126"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="E145:P145"/>
+    <mergeCell ref="E107:R108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="E100:R101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E32:P32"/>
+    <mergeCell ref="E80:R81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="E73:R74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="E46:P46"/>
+    <mergeCell ref="E63:R64"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E26:R27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="E2:R3"/>
     <mergeCell ref="E9:R10"/>
     <mergeCell ref="E49:R50"/>
@@ -14038,270 +14254,54 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="E33:R34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="E26:R27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E32:P32"/>
-    <mergeCell ref="E80:R81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="E73:R74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="E107:R108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="E100:R101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I105"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="E155:P155"/>
-    <mergeCell ref="E132:R133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="E125:R126"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I130"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="E181:R182"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="I183:I186"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="E174:R175"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="I176:I179"/>
-    <mergeCell ref="J176:J177"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="E206:R207"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I211"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="E199:R200"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I204"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="E93:P93"/>
-    <mergeCell ref="E114:R115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="E282:R283"/>
-    <mergeCell ref="E284:E285"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="H284:H285"/>
-    <mergeCell ref="I284:I287"/>
-    <mergeCell ref="J284:J285"/>
-    <mergeCell ref="K284:L284"/>
-    <mergeCell ref="E275:R276"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:G277"/>
-    <mergeCell ref="H277:H278"/>
-    <mergeCell ref="I277:I280"/>
-    <mergeCell ref="J277:J278"/>
-    <mergeCell ref="K277:L277"/>
-    <mergeCell ref="E258:R259"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="E180:P180"/>
-    <mergeCell ref="E213:R214"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="I215:I218"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="E39:P39"/>
-    <mergeCell ref="E55:P55"/>
-    <mergeCell ref="E62:P62"/>
-    <mergeCell ref="E79:P79"/>
-    <mergeCell ref="E86:P86"/>
-    <mergeCell ref="E106:P106"/>
-    <mergeCell ref="E113:P113"/>
-    <mergeCell ref="E131:P131"/>
-    <mergeCell ref="E138:P138"/>
-    <mergeCell ref="E69:P69"/>
-    <mergeCell ref="E87:R88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="E187:P187"/>
-    <mergeCell ref="E205:P205"/>
-    <mergeCell ref="E212:P212"/>
-    <mergeCell ref="E233:P233"/>
-    <mergeCell ref="E240:P240"/>
-    <mergeCell ref="E257:P257"/>
-    <mergeCell ref="E264:P264"/>
-    <mergeCell ref="E281:P281"/>
-    <mergeCell ref="E188:R189"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:H191"/>
-    <mergeCell ref="I190:I193"/>
-    <mergeCell ref="J190:J191"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="E194:P194"/>
-    <mergeCell ref="H260:H261"/>
-    <mergeCell ref="I260:I263"/>
-    <mergeCell ref="J260:J261"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="E251:R252"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:H254"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="E46:P46"/>
-    <mergeCell ref="E63:R64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="E16:R17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="E40:R41"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="E120:P120"/>
-    <mergeCell ref="E139:R140"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I144"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E145:P145"/>
-    <mergeCell ref="E163:R164"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I168"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="E169:P169"/>
-    <mergeCell ref="E162:P162"/>
-    <mergeCell ref="E156:R157"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:H159"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="J158:J159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="E149:R150"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I154"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="E219:P219"/>
-    <mergeCell ref="E241:R242"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="I243:I246"/>
-    <mergeCell ref="J243:J244"/>
-    <mergeCell ref="K243:L243"/>
-    <mergeCell ref="E234:R235"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="H236:H237"/>
-    <mergeCell ref="I236:I239"/>
-    <mergeCell ref="J236:J237"/>
-    <mergeCell ref="K236:L236"/>
-    <mergeCell ref="E227:R228"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="I229:I232"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="E289:R290"/>
-    <mergeCell ref="E291:E292"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="I291:I294"/>
-    <mergeCell ref="J291:J292"/>
-    <mergeCell ref="K291:L291"/>
-    <mergeCell ref="E295:P295"/>
-    <mergeCell ref="E247:P247"/>
-    <mergeCell ref="E265:R266"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="F267:G267"/>
-    <mergeCell ref="H267:H268"/>
-    <mergeCell ref="I267:I270"/>
-    <mergeCell ref="J267:J268"/>
-    <mergeCell ref="K267:L267"/>
-    <mergeCell ref="E271:P271"/>
-    <mergeCell ref="E288:P288"/>
-    <mergeCell ref="I253:I256"/>
-    <mergeCell ref="J253:J254"/>
-    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="E301:R302"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="H303:H304"/>
+    <mergeCell ref="I303:I306"/>
+    <mergeCell ref="J303:J304"/>
+    <mergeCell ref="K303:L303"/>
+    <mergeCell ref="E307:P307"/>
+    <mergeCell ref="E308:R309"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="H310:H311"/>
+    <mergeCell ref="I310:I313"/>
+    <mergeCell ref="J310:J311"/>
+    <mergeCell ref="K310:L310"/>
+    <mergeCell ref="E314:P314"/>
+    <mergeCell ref="E315:R316"/>
+    <mergeCell ref="E317:E318"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:H318"/>
+    <mergeCell ref="I317:I320"/>
+    <mergeCell ref="J317:J318"/>
+    <mergeCell ref="K317:L317"/>
+    <mergeCell ref="E321:P321"/>
+    <mergeCell ref="E324:R325"/>
+    <mergeCell ref="E326:E327"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="H326:H327"/>
+    <mergeCell ref="I326:I329"/>
+    <mergeCell ref="J326:J327"/>
+    <mergeCell ref="K326:L326"/>
+    <mergeCell ref="E330:P330"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:H341"/>
+    <mergeCell ref="I340:I343"/>
+    <mergeCell ref="J340:J341"/>
+    <mergeCell ref="K340:L340"/>
+    <mergeCell ref="E344:P344"/>
+    <mergeCell ref="E331:R332"/>
+    <mergeCell ref="E333:E334"/>
+    <mergeCell ref="F333:G333"/>
+    <mergeCell ref="H333:H334"/>
+    <mergeCell ref="I333:I336"/>
+    <mergeCell ref="J333:J334"/>
+    <mergeCell ref="K333:L333"/>
+    <mergeCell ref="E337:P337"/>
+    <mergeCell ref="E338:R339"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
